--- a/Zuul framework/data/alpha_centauri/readme.xlsx
+++ b/Zuul framework/data/alpha_centauri/readme.xlsx
@@ -452,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,7 +535,7 @@
         <v>29</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="P3">
         <v>2</v>
@@ -638,6 +638,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
